--- a/Kentucky by County Dollars and Donors.xlsx
+++ b/Kentucky by County Dollars and Donors.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="0" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\D3Playground\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="585" windowWidth="12135" windowHeight="9660"/>
   </bookViews>
@@ -454,9 +449,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -504,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +531,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -752,7 +744,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Kentucky by County Dollars and Donors.xlsx
+++ b/Kentucky by County Dollars and Donors.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="0" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\D3Playground\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="270" yWindow="585" windowWidth="12135" windowHeight="9660"/>
   </bookViews>
@@ -436,9 +441,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,6 +455,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,7 +506,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +754,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -753,7 +763,7 @@
     <col min="2" max="2" width="12.42578125"/>
     <col min="3" max="3" width="10.28515625"/>
     <col min="4" max="4" width="13.140625"/>
-    <col min="5" max="5" width="11"/>
+    <col min="5" max="5" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,7 +779,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -786,7 +796,7 @@
       <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>28991</v>
       </c>
     </row>
@@ -803,7 +813,7 @@
       <c r="D3">
         <v>24</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>32206</v>
       </c>
     </row>
@@ -820,7 +830,7 @@
       <c r="D4">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>17545.669999999998</v>
       </c>
     </row>
@@ -837,7 +847,7 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>90</v>
       </c>
     </row>
@@ -854,7 +864,7 @@
       <c r="D6">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>263112.17</v>
       </c>
     </row>
@@ -871,7 +881,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>120</v>
       </c>
     </row>
@@ -888,7 +898,7 @@
       <c r="D8">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>23228</v>
       </c>
     </row>
@@ -905,7 +915,7 @@
       <c r="D9">
         <v>132</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>271298.59000000003</v>
       </c>
     </row>
@@ -922,7 +932,7 @@
       <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>65467</v>
       </c>
     </row>
@@ -939,7 +949,7 @@
       <c r="D11">
         <v>36</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>2060818</v>
       </c>
     </row>
@@ -956,7 +966,7 @@
       <c r="D12">
         <v>46</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>101766.72</v>
       </c>
     </row>
@@ -973,7 +983,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>3630</v>
       </c>
     </row>
@@ -990,7 +1000,7 @@
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>1325</v>
       </c>
     </row>
@@ -1007,7 +1017,7 @@
       <c r="D15">
         <v>23</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>136299.92000000001</v>
       </c>
     </row>
@@ -1024,7 +1034,7 @@
       <c r="D16">
         <v>304</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>2560716.5099999998</v>
       </c>
     </row>
@@ -1041,7 +1051,7 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>43808.12</v>
       </c>
     </row>
@@ -1058,7 +1068,7 @@
       <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>4845</v>
       </c>
     </row>
@@ -1075,7 +1085,7 @@
       <c r="D19">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>28368.9</v>
       </c>
     </row>
@@ -1092,7 +1102,7 @@
       <c r="D20">
         <v>82</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>975381.9</v>
       </c>
     </row>
@@ -1109,7 +1119,7 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -1126,7 +1136,7 @@
       <c r="D22">
         <v>14</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>31270</v>
       </c>
     </row>
@@ -1143,7 +1153,7 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
     </row>
@@ -1160,7 +1170,7 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>7245</v>
       </c>
     </row>
@@ -1177,7 +1187,7 @@
       <c r="D25">
         <v>35</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>31057.5</v>
       </c>
     </row>
@@ -1194,7 +1204,7 @@
       <c r="D26">
         <v>429</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>9368</v>
       </c>
     </row>
@@ -1211,7 +1221,7 @@
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>640</v>
       </c>
     </row>
@@ -1228,7 +1238,7 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>420</v>
       </c>
     </row>
@@ -1245,7 +1255,7 @@
       <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>7145</v>
       </c>
     </row>
@@ -1262,7 +1272,7 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>1372</v>
       </c>
     </row>
@@ -1279,7 +1289,7 @@
       <c r="D31">
         <v>134</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>172503.2</v>
       </c>
     </row>
@@ -1296,7 +1306,7 @@
       <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>15800</v>
       </c>
     </row>
@@ -1313,7 +1323,7 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>2795</v>
       </c>
     </row>
@@ -1330,7 +1340,7 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>9280</v>
       </c>
     </row>
@@ -1347,7 +1357,7 @@
       <c r="D35">
         <v>345</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>7018007.1200000001</v>
       </c>
     </row>
@@ -1364,7 +1374,7 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>888</v>
       </c>
     </row>
@@ -1381,7 +1391,7 @@
       <c r="D37">
         <v>433</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>17909.13</v>
       </c>
     </row>
@@ -1398,7 +1408,7 @@
       <c r="D38">
         <v>87</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>37796675.909999996</v>
       </c>
     </row>
@@ -1415,7 +1425,7 @@
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>560</v>
       </c>
     </row>
@@ -1432,7 +1442,7 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>29240</v>
       </c>
     </row>
@@ -1449,7 +1459,7 @@
       <c r="D41">
         <v>8</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>3385</v>
       </c>
     </row>
@@ -1466,7 +1476,7 @@
       <c r="D42">
         <v>16</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>31279.360000000001</v>
       </c>
     </row>
@@ -1483,7 +1493,7 @@
       <c r="D43">
         <v>9</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>52625</v>
       </c>
     </row>
@@ -1500,7 +1510,7 @@
       <c r="D44">
         <v>23</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>96821</v>
       </c>
     </row>
@@ -1517,7 +1527,7 @@
       <c r="D45">
         <v>9</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>12215</v>
       </c>
     </row>
@@ -1534,7 +1544,7 @@
       <c r="D46">
         <v>15</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>215664.39</v>
       </c>
     </row>
@@ -1551,7 +1561,7 @@
       <c r="D47">
         <v>19</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>3740</v>
       </c>
     </row>
@@ -1568,7 +1578,7 @@
       <c r="D48">
         <v>273</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>3016045.03</v>
       </c>
     </row>
@@ -1585,7 +1595,7 @@
       <c r="D49">
         <v>2</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>89</v>
       </c>
     </row>
@@ -1602,7 +1612,7 @@
       <c r="D50">
         <v>109</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>14518.03</v>
       </c>
     </row>
@@ -1619,7 +1629,7 @@
       <c r="D51">
         <v>9</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>7505</v>
       </c>
     </row>
@@ -1636,7 +1646,7 @@
       <c r="D52">
         <v>28</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>200499.12</v>
       </c>
     </row>
@@ -1653,7 +1663,7 @@
       <c r="D53">
         <v>65</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>255439.88</v>
       </c>
     </row>
@@ -1670,7 +1680,7 @@
       <c r="D54">
         <v>35</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>831349.03</v>
       </c>
     </row>
@@ -1687,7 +1697,7 @@
       <c r="D55">
         <v>10</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>265</v>
       </c>
     </row>
@@ -1704,7 +1714,7 @@
       <c r="D56">
         <v>12837</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>543529401.97000003</v>
       </c>
     </row>
@@ -1721,7 +1731,7 @@
       <c r="D57">
         <v>32</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>336563.12</v>
       </c>
     </row>
@@ -1738,7 +1748,7 @@
       <c r="D58">
         <v>27</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>7029</v>
       </c>
     </row>
@@ -1755,7 +1765,7 @@
       <c r="D59">
         <v>167</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>596217.31999999995</v>
       </c>
     </row>
@@ -1772,7 +1782,7 @@
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>260</v>
       </c>
     </row>
@@ -1789,7 +1799,7 @@
       <c r="D61">
         <v>7</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>6485</v>
       </c>
     </row>
@@ -1806,7 +1816,7 @@
       <c r="D62">
         <v>17</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>15143</v>
       </c>
     </row>
@@ -1823,7 +1833,7 @@
       <c r="D63">
         <v>16</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>3194</v>
       </c>
     </row>
@@ -1840,7 +1850,7 @@
       <c r="D64">
         <v>12</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>1225</v>
       </c>
     </row>
@@ -1857,7 +1867,7 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1874,7 +1884,7 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>3995</v>
       </c>
     </row>
@@ -1891,7 +1901,7 @@
       <c r="D67">
         <v>5</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>3140</v>
       </c>
     </row>
@@ -1908,7 +1918,7 @@
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>1975</v>
       </c>
     </row>
@@ -1925,7 +1935,7 @@
       <c r="D69">
         <v>4</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>13296.86</v>
       </c>
     </row>
@@ -1942,7 +1952,7 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>5100</v>
       </c>
     </row>
@@ -1959,7 +1969,7 @@
       <c r="D71">
         <v>9</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>4743</v>
       </c>
     </row>
@@ -1976,7 +1986,7 @@
       <c r="D72">
         <v>5</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>4485</v>
       </c>
     </row>
@@ -1993,7 +2003,7 @@
       <c r="D73">
         <v>45</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>91816.66</v>
       </c>
     </row>
@@ -2010,7 +2020,7 @@
       <c r="D74">
         <v>3</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>8692.09</v>
       </c>
     </row>
@@ -2027,7 +2037,7 @@
       <c r="D75">
         <v>138</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>239503.2</v>
       </c>
     </row>
@@ -2044,7 +2054,7 @@
       <c r="D76">
         <v>17</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>11310</v>
       </c>
     </row>
@@ -2061,7 +2071,7 @@
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>220</v>
       </c>
     </row>
@@ -2078,7 +2088,7 @@
       <c r="D78">
         <v>9</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>26568.67</v>
       </c>
     </row>
@@ -2095,7 +2105,7 @@
       <c r="D79">
         <v>86</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>11443374.289999999</v>
       </c>
     </row>
@@ -2112,7 +2122,7 @@
       <c r="D80">
         <v>2</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>670</v>
       </c>
     </row>
@@ -2129,7 +2139,7 @@
       <c r="D81">
         <v>5</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>1310</v>
       </c>
     </row>
@@ -2146,7 +2156,7 @@
       <c r="D82">
         <v>59</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>529402.46</v>
       </c>
     </row>
@@ -2163,7 +2173,7 @@
       <c r="D83">
         <v>15</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>20547.5</v>
       </c>
     </row>
@@ -2180,7 +2190,7 @@
       <c r="D84">
         <v>3</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>11850</v>
       </c>
     </row>
@@ -2197,7 +2207,7 @@
       <c r="D85">
         <v>49</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>20789.37</v>
       </c>
     </row>
@@ -2214,7 +2224,7 @@
       <c r="D86">
         <v>9</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>6974</v>
       </c>
     </row>
@@ -2231,7 +2241,7 @@
       <c r="D87">
         <v>12</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>27641</v>
       </c>
     </row>
@@ -2248,7 +2258,7 @@
       <c r="D88">
         <v>170</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>1234816.98</v>
       </c>
     </row>
@@ -2265,7 +2275,7 @@
       <c r="D89">
         <v>4</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>963</v>
       </c>
     </row>
@@ -2282,7 +2292,7 @@
       <c r="D90">
         <v>10</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>15514.23</v>
       </c>
     </row>
@@ -2299,7 +2309,7 @@
       <c r="D91">
         <v>732</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>12183220.59</v>
       </c>
     </row>
@@ -2316,7 +2326,7 @@
       <c r="D92">
         <v>3</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>1745</v>
       </c>
     </row>
@@ -2333,7 +2343,7 @@
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>9995</v>
       </c>
     </row>
@@ -2350,7 +2360,7 @@
       <c r="D94">
         <v>11</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>5715</v>
       </c>
     </row>
@@ -2367,7 +2377,7 @@
       <c r="D95">
         <v>26</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>303653.63</v>
       </c>
     </row>
@@ -2384,7 +2394,7 @@
       <c r="D96">
         <v>4</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>1790</v>
       </c>
     </row>
@@ -2401,7 +2411,7 @@
       <c r="D97">
         <v>32</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>1154907</v>
       </c>
     </row>
@@ -2418,7 +2428,7 @@
       <c r="D98">
         <v>4</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>1805</v>
       </c>
     </row>
@@ -2435,7 +2445,7 @@
       <c r="D99">
         <v>8</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>2735</v>
       </c>
     </row>
@@ -2452,7 +2462,7 @@
       <c r="D100">
         <v>17</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>53827</v>
       </c>
     </row>
@@ -2469,7 +2479,7 @@
       <c r="D101">
         <v>70</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>213567.14</v>
       </c>
     </row>
@@ -2486,7 +2496,7 @@
       <c r="D102">
         <v>268</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>5479459.4500000002</v>
       </c>
     </row>
@@ -2503,7 +2513,7 @@
       <c r="D103">
         <v>6</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>29516</v>
       </c>
     </row>
@@ -2520,7 +2530,7 @@
       <c r="D104">
         <v>95</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>373510.12</v>
       </c>
     </row>
@@ -2537,7 +2547,7 @@
       <c r="D105">
         <v>27</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>610185.43000000005</v>
       </c>
     </row>
@@ -2554,7 +2564,7 @@
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>110</v>
       </c>
     </row>
@@ -2571,7 +2581,7 @@
       <c r="D107">
         <v>11</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>9726</v>
       </c>
     </row>
@@ -2588,7 +2598,7 @@
       <c r="D108">
         <v>13</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>2990.45</v>
       </c>
     </row>
@@ -2605,7 +2615,7 @@
       <c r="D109">
         <v>4</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>122108.65</v>
       </c>
     </row>
@@ -2622,7 +2632,7 @@
       <c r="D110">
         <v>140</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>665709.97</v>
       </c>
     </row>
@@ -2639,7 +2649,7 @@
       <c r="D111">
         <v>36</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>35586</v>
       </c>
     </row>
@@ -2656,7 +2666,7 @@
       <c r="D112">
         <v>6</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>8780</v>
       </c>
     </row>
@@ -2673,7 +2683,7 @@
       <c r="D113">
         <v>5</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>21586.68</v>
       </c>
     </row>
@@ -2690,7 +2700,7 @@
       <c r="D114">
         <v>22</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>3099036</v>
       </c>
     </row>
@@ -2707,7 +2717,7 @@
       <c r="D115">
         <v>5</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>3145</v>
       </c>
     </row>
@@ -2724,7 +2734,7 @@
       <c r="D116">
         <v>29</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>57550.69</v>
       </c>
     </row>
